--- a/TestData/DataDrivenExcel.xlsx
+++ b/TestData/DataDrivenExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_56DAE3E87D546297493D04D976336732C7E0FBC1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33DF6B3A-9C1A-460B-ACBD-DE033D05CC06}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_56DAE3E87D546297493D04D976336732C7E0FBC1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AF184EA-85BF-4E0F-846B-A7E29F5E213D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
   <si>
     <t>Testcase</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>Selenium@1423</t>
+  </si>
+  <si>
+    <t>HubSpot</t>
+  </si>
+  <si>
+    <t>textBox1</t>
+  </si>
+  <si>
+    <t>textBox2</t>
   </si>
 </sst>
 </file>
@@ -555,24 +564,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" style="5" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.6640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="24" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="8.88671875" style="5"/>
+    <col min="7" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -597,10 +606,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -625,7 +634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -650,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -693,10 +702,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -727,7 +736,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -770,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,7 +802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -813,7 +822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -844,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
@@ -875,7 +884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,7 +904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -912,7 +921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
@@ -929,7 +938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
@@ -946,7 +955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -963,7 +972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -978,6 +987,31 @@
       </c>
       <c r="E33" s="5">
         <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
